--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43634,6 +43634,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43671,6 +43671,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43708,6 +43708,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43745,6 +43745,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43782,6 +43782,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43817,6 +43817,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43854,6 +43854,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>11400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43889,6 +43889,43 @@
         <v>11400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43926,6 +43926,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43961,6 +43961,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43996,6 +43996,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44033,6 +44033,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44070,6 +44070,76 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44140,6 +44140,78 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44212,6 +44212,43 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44249,6 +44249,43 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44286,6 +44286,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44321,6 +44321,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44356,6 +44356,76 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44426,6 +44426,41 @@
         <v>1400</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44461,6 +44461,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>42600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1934"/>
+  <dimension ref="A1:I1935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68786,6 +68786,43 @@
         <v>42600</v>
       </c>
     </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1935" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1935" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1935" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1935" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1935" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1935"/>
+  <dimension ref="A1:I1936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68823,6 +68823,43 @@
         </is>
       </c>
     </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1936" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1936" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1936" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1936" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1936" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1936"/>
+  <dimension ref="A1:I1937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68860,6 +68860,43 @@
         </is>
       </c>
     </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1937" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1937" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1937" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1937" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1937" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1937"/>
+  <dimension ref="A1:I1938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68897,6 +68897,43 @@
         </is>
       </c>
     </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1938" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1938" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1938" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1938" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1938" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1938"/>
+  <dimension ref="A1:I1939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68934,6 +68934,43 @@
         </is>
       </c>
     </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1939" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1939" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1939" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1939" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1939" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1939"/>
+  <dimension ref="A1:I1940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68971,6 +68971,43 @@
         </is>
       </c>
     </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1940" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1940" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1940" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1940" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1940" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1940"/>
+  <dimension ref="A1:I1941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69008,6 +69008,43 @@
         </is>
       </c>
     </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1941" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1941" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1941" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1941" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1941"/>
+  <dimension ref="A1:I1942"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69045,6 +69045,43 @@
         </is>
       </c>
     </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1942" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1942" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1942" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1942" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1942" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1942"/>
+  <dimension ref="A1:I1943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69082,6 +69082,43 @@
         </is>
       </c>
     </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1943" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1943" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1943" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1943" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1943" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1943"/>
+  <dimension ref="A1:I1944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69119,6 +69119,43 @@
         </is>
       </c>
     </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1944" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1944" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1944" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1944" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1944" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1944"/>
+  <dimension ref="A1:I1945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69156,6 +69156,43 @@
         </is>
       </c>
     </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1945" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1945" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1945" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1945" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1945"/>
+  <dimension ref="A1:I1946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69193,6 +69193,43 @@
         </is>
       </c>
     </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1946" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1946" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1946" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1946" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1946"/>
+  <dimension ref="A1:I1947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69230,6 +69230,41 @@
         </is>
       </c>
     </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1947" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1947" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1947" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1947" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1947"/>
+  <dimension ref="A1:I1948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69265,6 +69265,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1948" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1948" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1948" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1948" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5006.xlsx
+++ b/data/5006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1948"/>
+  <dimension ref="A1:I1949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69302,6 +69302,43 @@
         </is>
       </c>
     </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>STELLA</t>
+        </is>
+      </c>
+      <c r="E1949" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1949" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1949" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1949" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
